--- a/实验内容/实验四/数据库修改部分测试.xlsx
+++ b/实验内容/实验四/数据库修改部分测试.xlsx
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.4 RUCM模型 （3）数据库增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Step2:开发人员通过数据源仓库类加载属性信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,6 +274,10 @@
   </si>
   <si>
     <t>更新数据时必须满足数据库的要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 RUCM模型 （6）数据库修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -843,7 +843,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -919,40 +919,40 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="L6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="409.5">
@@ -960,40 +960,40 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="M7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="71.25">
@@ -1001,40 +1001,40 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13">

--- a/实验内容/实验四/数据库修改部分测试.xlsx
+++ b/实验内容/实验四/数据库修改部分测试.xlsx
@@ -245,39 +245,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>执行更新操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要更新的对象及数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新数据时必须满足数据库的要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 RUCM模型 （6）数据库修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Step6:开发人员将插入内容输入到“数据操作类”的队形的修改方法中执行插入操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行更新操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T saveOrUpdate(Object entity，Take take)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.“person”，1,2,3。            2.null,1,2,3。                 3."person"，4，5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>成功在数据库中更新一条数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>要更新的对象及数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.“person”，1,2,3。            2.null,1,2,3。                 3."person"，4，5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对于1,3而言成功在数据库中更新一条数据，对于2而言由于由于对象为空，所以更新失败。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新数据时必须满足数据库的要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.4 RUCM模型 （6）数据库修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -843,7 +843,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -1001,34 +1001,34 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>45</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>46</v>
